--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1827,28 +1827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.513947084659</v>
+        <v>215.6720588438295</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.4601225819553</v>
+        <v>295.0920256897074</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.3656828128144</v>
+        <v>266.928856922228</v>
       </c>
       <c r="AD2" t="n">
-        <v>184513.947084659</v>
+        <v>215672.0588438295</v>
       </c>
       <c r="AE2" t="n">
-        <v>252460.1225819553</v>
+        <v>295092.0256897074</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.152746113368538e-06</v>
+        <v>7.02042334813572e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.879166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>228365.6828128144</v>
+        <v>266928.856922228</v>
       </c>
     </row>
     <row r="3">
@@ -1933,28 +1933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.23579335286534</v>
+        <v>92.97942090745509</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.83619928364037</v>
+        <v>127.2185456480759</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.40341114151123</v>
+        <v>115.0769862038074</v>
       </c>
       <c r="AD3" t="n">
-        <v>72235.79335286534</v>
+        <v>92979.42090745509</v>
       </c>
       <c r="AE3" t="n">
-        <v>98836.19928364037</v>
+        <v>127218.5456480759</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.373144850550105e-06</v>
+        <v>1.246466719729247e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.748611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>89403.41114151123</v>
+        <v>115076.9862038074</v>
       </c>
     </row>
     <row r="4">
@@ -2039,28 +2039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.50067030827526</v>
+        <v>92.244297862865</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.83037150269287</v>
+        <v>126.2127178671284</v>
       </c>
       <c r="AC4" t="n">
-        <v>88.4935781522889</v>
+        <v>114.1671532145851</v>
       </c>
       <c r="AD4" t="n">
-        <v>71500.67030827526</v>
+        <v>92244.297862865</v>
       </c>
       <c r="AE4" t="n">
-        <v>97830.37150269287</v>
+        <v>126212.7178671284</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.444919988882759e-06</v>
+        <v>1.258600662985352e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.722222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>88493.5781522889</v>
+        <v>114167.1532145851</v>
       </c>
     </row>
   </sheetData>
@@ -2336,28 +2336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.5666323857659</v>
+        <v>133.7477680734859</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.3868766363564</v>
+        <v>182.9995968131513</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.5569712170762</v>
+        <v>165.5343721349028</v>
       </c>
       <c r="AD2" t="n">
-        <v>113566.6323857659</v>
+        <v>133747.7680734859</v>
       </c>
       <c r="AE2" t="n">
-        <v>155386.8766363564</v>
+        <v>182999.5968131513</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.562137953312766e-06</v>
+        <v>9.632460489927474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.768055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>140556.9712170762</v>
+        <v>165534.3721349027</v>
       </c>
     </row>
     <row r="3">
@@ -2442,28 +2442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.33187547883318</v>
+        <v>89.42767031198154</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.86293073657664</v>
+        <v>122.3588837911739</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.80934576806057</v>
+        <v>110.6811236539483</v>
       </c>
       <c r="AD3" t="n">
-        <v>69331.87547883319</v>
+        <v>89427.67031198155</v>
       </c>
       <c r="AE3" t="n">
-        <v>94862.93073657664</v>
+        <v>122358.8837911739</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.46865219154264e-06</v>
+        <v>1.293414470333245e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.806944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>85809.34576806056</v>
+        <v>110681.1236539484</v>
       </c>
     </row>
   </sheetData>
@@ -2739,28 +2739,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.73117777569085</v>
+        <v>96.79131680052913</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.7234708070824</v>
+        <v>132.4341497779553</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.44249394412272</v>
+        <v>119.7948203956791</v>
       </c>
       <c r="AD2" t="n">
-        <v>78731.17777569086</v>
+        <v>96791.31680052914</v>
       </c>
       <c r="AE2" t="n">
-        <v>107723.4708070824</v>
+        <v>132434.1497779553</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.809911445343807e-06</v>
+        <v>1.288581787752454e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.434722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>97442.49394412272</v>
+        <v>119794.8203956791</v>
       </c>
     </row>
     <row r="3">
@@ -2845,28 +2845,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.82308572428347</v>
+        <v>96.88322474912174</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.8492233170393</v>
+        <v>132.5599022879121</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.5562448110241</v>
+        <v>119.9085712625805</v>
       </c>
       <c r="AD3" t="n">
-        <v>78823.08572428348</v>
+        <v>96883.22474912174</v>
       </c>
       <c r="AE3" t="n">
-        <v>107849.2233170393</v>
+        <v>132559.9022879121</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.831129795009064e-06</v>
+        <v>1.292596756106192e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.423611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>97556.24481102409</v>
+        <v>119908.5712625805</v>
       </c>
     </row>
   </sheetData>
@@ -3142,28 +3142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.34828614752452</v>
+        <v>86.84500643504788</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.8313374725533</v>
+        <v>118.8251691356662</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.73094315941466</v>
+        <v>107.4846617655615</v>
       </c>
       <c r="AD2" t="n">
-        <v>77348.28614752452</v>
+        <v>86845.00643504788</v>
       </c>
       <c r="AE2" t="n">
-        <v>105831.3374725533</v>
+        <v>118825.1691356662</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.242043114248292e-06</v>
+        <v>1.319342976503977e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.090277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>95730.94315941466</v>
+        <v>107484.6617655615</v>
       </c>
     </row>
     <row r="3">
@@ -3248,28 +3248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.24559271508932</v>
+        <v>86.74231300261269</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.690827787781</v>
+        <v>118.684659450894</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.60384352175045</v>
+        <v>107.3575621278973</v>
       </c>
       <c r="AD3" t="n">
-        <v>77245.59271508931</v>
+        <v>86742.31300261269</v>
       </c>
       <c r="AE3" t="n">
-        <v>105690.827787781</v>
+        <v>118684.659450894</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.271847086755931e-06</v>
+        <v>1.324772613027751e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.076388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>95603.84352175044</v>
+        <v>107357.5621278973</v>
       </c>
     </row>
   </sheetData>
@@ -3545,28 +3545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.20725261669534</v>
+        <v>99.81255255082975</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.4795897581412</v>
+        <v>136.5679378190288</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.7446955777488</v>
+        <v>123.5340855079218</v>
       </c>
       <c r="AD2" t="n">
-        <v>82207.25261669535</v>
+        <v>99812.55255082974</v>
       </c>
       <c r="AE2" t="n">
-        <v>112479.5897581412</v>
+        <v>136567.9378190288</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.251698794652732e-06</v>
+        <v>1.225131533724399e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.886111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>101744.6955777488</v>
+        <v>123534.0855079218</v>
       </c>
     </row>
   </sheetData>
@@ -3842,28 +3842,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.4599185570643</v>
+        <v>155.7260801910756</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.3422366395305</v>
+        <v>213.0712930671211</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.6534337041687</v>
+        <v>192.736067904294</v>
       </c>
       <c r="AD2" t="n">
-        <v>135459.9185570643</v>
+        <v>155726.0801910756</v>
       </c>
       <c r="AE2" t="n">
-        <v>185342.2366395305</v>
+        <v>213071.2930671211</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.190620232592464e-06</v>
+        <v>8.930364564351005e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.001388888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>167653.4337041687</v>
+        <v>192736.067904294</v>
       </c>
     </row>
     <row r="3">
@@ -3948,28 +3948,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.90895283029973</v>
+        <v>90.17502495576001</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.65251342770871</v>
+        <v>123.381447385751</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.52357179533755</v>
+        <v>111.6060952142363</v>
       </c>
       <c r="AD3" t="n">
-        <v>69908.95283029972</v>
+        <v>90175.02495576</v>
       </c>
       <c r="AE3" t="n">
-        <v>95652.51342770871</v>
+        <v>123381.447385751</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.456001569049504e-06</v>
+        <v>1.282791058106929e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.786111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>86523.57179533754</v>
+        <v>111606.0952142363</v>
       </c>
     </row>
   </sheetData>
@@ -4245,28 +4245,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.24150266215462</v>
+        <v>112.3912022819763</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.313625700858</v>
+        <v>153.778601312036</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.8766761603251</v>
+        <v>139.1021874324799</v>
       </c>
       <c r="AD2" t="n">
-        <v>95241.50266215461</v>
+        <v>112391.2022819764</v>
       </c>
       <c r="AE2" t="n">
-        <v>130313.625700858</v>
+        <v>153778.601312036</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.77911825193637e-06</v>
+        <v>1.158516937137813e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.301388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>117876.6761603251</v>
+        <v>139102.1874324799</v>
       </c>
     </row>
   </sheetData>
@@ -4542,28 +4542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.97564893647694</v>
+        <v>94.78999018934279</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.2674317358904</v>
+        <v>129.6958464162327</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.1710312334124</v>
+        <v>117.3178568635656</v>
       </c>
       <c r="AD2" t="n">
-        <v>84975.64893647694</v>
+        <v>94789.99018934279</v>
       </c>
       <c r="AE2" t="n">
-        <v>116267.4317358904</v>
+        <v>129695.8464162327</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.87839457131461e-06</v>
+        <v>1.218214789797486e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.140277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>105171.0312334124</v>
+        <v>117317.8568635656</v>
       </c>
     </row>
     <row r="3">
@@ -4648,28 +4648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.28663222570665</v>
+        <v>87.82979485976466</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.43278280477179</v>
+        <v>120.1726001041621</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.51568914764151</v>
+        <v>108.7034958135558</v>
       </c>
       <c r="AD3" t="n">
-        <v>68286.63222570665</v>
+        <v>87829.79485976466</v>
       </c>
       <c r="AE3" t="n">
-        <v>93432.78280477179</v>
+        <v>120172.6001041621</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.410480070399959e-06</v>
+        <v>1.312451085447892e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.913888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>84515.6891476415</v>
+        <v>108703.4958135558</v>
       </c>
     </row>
   </sheetData>
@@ -4945,28 +4945,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.8728859581902</v>
+        <v>122.8772693458412</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.7552209993584</v>
+        <v>168.1261008814379</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.321740258411</v>
+        <v>152.0803817798247</v>
       </c>
       <c r="AD2" t="n">
-        <v>102872.8859581901</v>
+        <v>122877.2693458412</v>
       </c>
       <c r="AE2" t="n">
-        <v>140755.2209993585</v>
+        <v>168126.1008814379</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.973141561244051e-06</v>
+        <v>1.041663731284098e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.543055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>127321.740258411</v>
+        <v>152080.3817798247</v>
       </c>
     </row>
     <row r="3">
@@ -5051,28 +5051,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.85632745925494</v>
+        <v>88.77536999233435</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.21226495649209</v>
+        <v>121.466377716374</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.22077861681193</v>
+        <v>109.8737971062869</v>
       </c>
       <c r="AD3" t="n">
-        <v>68856.32745925494</v>
+        <v>88775.36999233435</v>
       </c>
       <c r="AE3" t="n">
-        <v>94212.26495649209</v>
+        <v>121466.377716374</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.463722759377338e-06</v>
+        <v>1.301608076602118e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.834722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>85220.77861681192</v>
+        <v>109873.7971062869</v>
       </c>
     </row>
   </sheetData>
@@ -5348,28 +5348,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.5247171507675</v>
+        <v>186.2849086530376</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.4782204407184</v>
+        <v>254.88323032912</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.8634569461002</v>
+        <v>230.5575325574435</v>
       </c>
       <c r="AD2" t="n">
-        <v>165524.7171507675</v>
+        <v>186284.9086530376</v>
       </c>
       <c r="AE2" t="n">
-        <v>226478.2204407184</v>
+        <v>254883.2303291199</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.481662137426236e-06</v>
+        <v>7.618528605287289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.556944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>204863.4569461002</v>
+        <v>230557.5325574435</v>
       </c>
     </row>
     <row r="3">
@@ -5454,28 +5454,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.08205102422895</v>
+        <v>91.67156081735575</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.2575981300816</v>
+        <v>125.4290737740879</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.97546946646699</v>
+        <v>113.4582990139327</v>
       </c>
       <c r="AD3" t="n">
-        <v>71082.05102422895</v>
+        <v>91671.56081735576</v>
       </c>
       <c r="AE3" t="n">
-        <v>97257.59813008161</v>
+        <v>125429.0737740879</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.426792212183355e-06</v>
+        <v>1.262505453981805e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>87975.469466467</v>
+        <v>113458.2990139327</v>
       </c>
     </row>
     <row r="4">
@@ -5560,28 +5560,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.76740422292677</v>
+        <v>91.35691401605358</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.82708449530301</v>
+        <v>124.9985601393093</v>
       </c>
       <c r="AC4" t="n">
-        <v>87.58604344876183</v>
+        <v>113.0688729962275</v>
       </c>
       <c r="AD4" t="n">
-        <v>70767.40422292677</v>
+        <v>91356.91401605358</v>
       </c>
       <c r="AE4" t="n">
-        <v>96827.08449530302</v>
+        <v>124998.5601393093</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.466937034951912e-06</v>
+        <v>1.269329807787111e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.734722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>87586.04344876183</v>
+        <v>113068.8729962275</v>
       </c>
     </row>
   </sheetData>
@@ -5857,28 +5857,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.78977574653649</v>
+        <v>87.39801161624139</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.4354030190677</v>
+        <v>119.5818152214416</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.2773575379812</v>
+        <v>108.1690946108701</v>
       </c>
       <c r="AD2" t="n">
-        <v>77789.77574653648</v>
+        <v>87398.01161624139</v>
       </c>
       <c r="AE2" t="n">
-        <v>106435.4030190677</v>
+        <v>119581.8152214416</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.282334049381402e-06</v>
+        <v>1.313177158214514e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.034722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>96277.35753798121</v>
+        <v>108169.0946108701</v>
       </c>
     </row>
     <row r="3">
@@ -5963,28 +5963,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.43101989919634</v>
+        <v>87.03925576890126</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.9445374415462</v>
+        <v>119.0909496439201</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.83333948224406</v>
+        <v>107.725076555133</v>
       </c>
       <c r="AD3" t="n">
-        <v>77431.01989919634</v>
+        <v>87039.25576890126</v>
       </c>
       <c r="AE3" t="n">
-        <v>105944.5374415462</v>
+        <v>119090.9496439201</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.338014251174557e-06</v>
+        <v>1.323217616213795e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.011111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>95833.33948224406</v>
+        <v>107725.076555133</v>
       </c>
     </row>
   </sheetData>
@@ -6260,28 +6260,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.76362252966611</v>
+        <v>87.01543253769327</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.3996190339472</v>
+        <v>119.0583536479746</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.24498872617743</v>
+        <v>107.6955914752917</v>
       </c>
       <c r="AD2" t="n">
-        <v>77763.62252966611</v>
+        <v>87015.43253769327</v>
       </c>
       <c r="AE2" t="n">
-        <v>106399.6190339472</v>
+        <v>119058.3536479746</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.006934954554902e-06</v>
+        <v>1.307270090932636e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.284722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>96244.98872617743</v>
+        <v>107695.5914752917</v>
       </c>
     </row>
     <row r="3">
@@ -6366,28 +6366,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.78387627483308</v>
+        <v>87.03568628286023</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.4273311016167</v>
+        <v>119.0860657156441</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.27005599300277</v>
+        <v>107.7206587421171</v>
       </c>
       <c r="AD3" t="n">
-        <v>77783.87627483308</v>
+        <v>87035.68628286023</v>
       </c>
       <c r="AE3" t="n">
-        <v>106427.3311016167</v>
+        <v>119086.0657156441</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.030797940470186e-06</v>
+        <v>1.311722161341412e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.273611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>96270.05599300277</v>
+        <v>107720.6587421171</v>
       </c>
     </row>
   </sheetData>
@@ -10540,28 +10540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.8856639706194</v>
+        <v>97.81930926360458</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.3030897513192</v>
+        <v>133.8406944177611</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.87135627333114</v>
+        <v>121.0671263891601</v>
       </c>
       <c r="AD2" t="n">
-        <v>79885.66397061941</v>
+        <v>97819.30926360458</v>
       </c>
       <c r="AE2" t="n">
-        <v>109303.0897513192</v>
+        <v>133840.6944177611</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.578252358561682e-06</v>
+        <v>1.26502232308443e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.619444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>98871.35627333114</v>
+        <v>121067.1263891601</v>
       </c>
     </row>
   </sheetData>
@@ -10837,28 +10837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.8000317829171</v>
+        <v>128.6042547916732</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.9697357546218</v>
+        <v>175.9620150251876</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.370518868615</v>
+        <v>159.168447275472</v>
       </c>
       <c r="AD2" t="n">
-        <v>111800.0317829171</v>
+        <v>128604.2547916732</v>
       </c>
       <c r="AE2" t="n">
-        <v>152969.7357546218</v>
+        <v>175962.0150251876</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.084591899876923e-06</v>
+        <v>1.048747580209264e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.026388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>138370.518868615</v>
+        <v>159168.447275472</v>
       </c>
     </row>
   </sheetData>
@@ -11134,28 +11134,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.98183285522545</v>
+        <v>112.6316925950078</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.2218457814229</v>
+        <v>154.1076507680093</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.0799713770596</v>
+        <v>139.3998328701989</v>
       </c>
       <c r="AD2" t="n">
-        <v>92981.83285522545</v>
+        <v>112631.6925950078</v>
       </c>
       <c r="AE2" t="n">
-        <v>127221.8457814229</v>
+        <v>154107.6507680092</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.433755224548015e-06</v>
+        <v>1.130385413219768e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.322222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>115079.9713770596</v>
+        <v>139399.8328701989</v>
       </c>
     </row>
     <row r="3">
@@ -11240,28 +11240,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.87612273710523</v>
+        <v>87.61123382290813</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.87110561206715</v>
+        <v>119.8735552513027</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.00761763788954</v>
+        <v>108.4329913817411</v>
       </c>
       <c r="AD3" t="n">
-        <v>67876.12273710524</v>
+        <v>87611.23382290814</v>
       </c>
       <c r="AE3" t="n">
-        <v>92871.10561206716</v>
+        <v>119873.5552513027</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.495302525486879e-06</v>
+        <v>1.316895086426741e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.851388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>84007.61763788953</v>
+        <v>108432.9913817411</v>
       </c>
     </row>
   </sheetData>
@@ -11537,28 +11537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.9446151693427</v>
+        <v>170.3751773681529</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.1608375641546</v>
+        <v>233.1148340973442</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.5805751721341</v>
+        <v>210.8666815098855</v>
       </c>
       <c r="AD2" t="n">
-        <v>149944.6151693427</v>
+        <v>170375.1773681529</v>
       </c>
       <c r="AE2" t="n">
-        <v>205160.8375641546</v>
+        <v>233114.8340973442</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.813708037983218e-06</v>
+        <v>8.230904293796207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.277777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>185580.5751721341</v>
+        <v>210866.6815098855</v>
       </c>
     </row>
     <row r="3">
@@ -11643,28 +11643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.78214519855506</v>
+        <v>91.21261788881428</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.84725374848357</v>
+        <v>124.8011278121247</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.60428777672659</v>
+        <v>112.8902833332514</v>
       </c>
       <c r="AD3" t="n">
-        <v>70782.14519855505</v>
+        <v>91212.61788881427</v>
       </c>
       <c r="AE3" t="n">
-        <v>96847.25374848356</v>
+        <v>124801.1278121247</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.418136859396286e-06</v>
+        <v>1.268418733462573e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.776388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>87604.28777672659</v>
+        <v>112890.2833332514</v>
       </c>
     </row>
     <row r="4">
@@ -11749,28 +11749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.61540796197865</v>
+        <v>91.04588065223786</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.61911650547211</v>
+        <v>124.5729905691132</v>
       </c>
       <c r="AC4" t="n">
-        <v>87.39792363199545</v>
+        <v>112.6839191885202</v>
       </c>
       <c r="AD4" t="n">
-        <v>70615.40796197865</v>
+        <v>91045.88065223786</v>
       </c>
       <c r="AE4" t="n">
-        <v>96619.11650547211</v>
+        <v>124572.9905691132</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.453722564898087e-06</v>
+        <v>1.274503492527754e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.7625</v>
       </c>
       <c r="AH4" t="n">
-        <v>87397.92363199545</v>
+        <v>112683.9191885202</v>
       </c>
     </row>
   </sheetData>
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.0114652668464</v>
+        <v>161.5105915216595</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.4651312972633</v>
+        <v>220.9859166642512</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.5737222752695</v>
+        <v>199.8953309335606</v>
       </c>
       <c r="AD2" t="n">
-        <v>137011.4652668464</v>
+        <v>161510.5915216595</v>
       </c>
       <c r="AE2" t="n">
-        <v>187465.1312972633</v>
+        <v>220985.9166642512</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.036613175560929e-06</v>
+        <v>8.652321260752173e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.555555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>169573.7222752695</v>
+        <v>199895.3309335606</v>
       </c>
     </row>
   </sheetData>
@@ -12343,28 +12343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.39940901362353</v>
+        <v>86.77774249725384</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.9012860333316</v>
+        <v>118.733135648501</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.79421592772573</v>
+        <v>107.4014118252415</v>
       </c>
       <c r="AD2" t="n">
-        <v>77399.40901362353</v>
+        <v>86777.74249725384</v>
       </c>
       <c r="AE2" t="n">
-        <v>105901.2860333316</v>
+        <v>118733.135648501</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.141914332738055e-06</v>
+        <v>1.315849532956236e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.175</v>
       </c>
       <c r="AH2" t="n">
-        <v>95794.21592772573</v>
+        <v>107401.4118252415</v>
       </c>
     </row>
     <row r="3">
@@ -12449,28 +12449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.36567065156689</v>
+        <v>86.7440041351972</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.8551237179343</v>
+        <v>118.6869733331036</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.75245927892068</v>
+        <v>107.3596551764364</v>
       </c>
       <c r="AD3" t="n">
-        <v>77365.67065156689</v>
+        <v>86744.0041351972</v>
       </c>
       <c r="AE3" t="n">
-        <v>105855.1237179343</v>
+        <v>118686.9733331036</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.168532191117759e-06</v>
+        <v>1.320753693785592e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.163888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>95752.45927892068</v>
+        <v>107359.6551764364</v>
       </c>
     </row>
   </sheetData>
@@ -12746,28 +12746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.79788557577974</v>
+        <v>89.51173932523304</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.1829874789901</v>
+        <v>122.4739107239677</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.76271639330854</v>
+        <v>110.7851725777176</v>
       </c>
       <c r="AD2" t="n">
-        <v>79797.88557577974</v>
+        <v>89511.73932523304</v>
       </c>
       <c r="AE2" t="n">
-        <v>109182.9874789901</v>
+        <v>122473.9107239677</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.196709660144736e-06</v>
+        <v>1.285639660435178e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.034722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>98762.71639330854</v>
+        <v>110785.1725777176</v>
       </c>
     </row>
     <row r="3">
@@ -12852,28 +12852,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.80835638306451</v>
+        <v>87.15054401029737</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.77838469682813</v>
+        <v>119.2432191254889</v>
       </c>
       <c r="AC3" t="n">
-        <v>83.92374587666626</v>
+        <v>107.8628136510924</v>
       </c>
       <c r="AD3" t="n">
-        <v>67808.3563830645</v>
+        <v>87150.54401029737</v>
       </c>
       <c r="AE3" t="n">
-        <v>92778.38469682813</v>
+        <v>119243.2191254889</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.395281869275746e-06</v>
+        <v>1.321113136450594e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.952777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>83923.74587666626</v>
+        <v>107862.8136510924</v>
       </c>
     </row>
   </sheetData>
